--- a/Control/Dataset/Estimulos.xlsx
+++ b/Control/Dataset/Estimulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.riveros_pragma\Documents\Universidad\Proyecto_de_grado\DOCUMENTACIONPG\Proyecto_de_Grado-CultivoAcuaponico-\Control\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8B6F11-4790-4AFC-8698-E37BBDB52B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04474C7E-AF27-40EF-815D-B73B041C55B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Control/Dataset/Estimulos.xlsx
+++ b/Control/Dataset/Estimulos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis.riveros_pragma\Documents\Universidad\Proyecto_de_grado\DOCUMENTACIONPG\Proyecto_de_Grado-CultivoAcuaponico-\Control\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04474C7E-AF27-40EF-815D-B73B041C55B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86FE0B9-4637-4634-99CC-4A5BD54589F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First configuration" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="50">
   <si>
     <t>Fecha Inicio</t>
   </si>
@@ -172,16 +172,30 @@
   <si>
     <t>Oxygenation</t>
   </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>8-10</t>
+  </si>
+  <si>
+    <t>10-12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
-    <numFmt numFmtId="165" formatCode="d\-m"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -196,6 +210,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -256,11 +275,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -275,10 +289,17 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +521,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B6" sqref="B6:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -514,27 +535,27 @@
       <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <v>44896</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -559,7 +580,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -579,8 +600,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -599,8 +620,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -619,8 +640,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -639,8 +660,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -659,8 +680,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -679,7 +700,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -699,7 +720,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -719,7 +740,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -739,7 +760,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -759,7 +780,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -779,7 +800,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -799,10 +820,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1790,7 +1811,11 @@
   <mergeCells count="1">
     <mergeCell ref="D4:G4"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1801,8 +1826,8 @@
   </sheetPr>
   <dimension ref="B1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1824,12 +1849,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -1841,27 +1866,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -1881,8 +1906,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1901,8 +1926,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -1921,8 +1946,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1941,8 +1966,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1961,8 +1986,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -1981,7 +2006,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -2001,7 +2026,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -2021,7 +2046,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -2041,7 +2066,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -2061,7 +2086,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -2081,7 +2106,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -3089,6 +3114,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3100,7 +3128,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3122,12 +3150,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,27 +3167,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -3179,8 +3207,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -3199,8 +3227,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -3219,8 +3247,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -3239,8 +3267,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -3259,8 +3287,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -3279,7 +3307,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -3299,7 +3327,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -3319,7 +3347,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -3339,7 +3367,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -3359,7 +3387,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -3379,7 +3407,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -4386,6 +4414,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4396,8 +4427,8 @@
   </sheetPr>
   <dimension ref="B1:L1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4419,12 +4450,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -4436,27 +4467,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -4477,8 +4508,8 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -4497,8 +4528,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -4517,8 +4548,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -4537,8 +4568,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -4557,8 +4588,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -4577,7 +4608,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -4597,7 +4628,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -4617,7 +4648,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -4637,7 +4668,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -4657,7 +4688,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -4677,7 +4708,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -5684,6 +5715,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -5695,7 +5729,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5717,12 +5751,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -5734,27 +5768,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -5774,8 +5808,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -5794,8 +5828,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -5814,8 +5848,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -5834,8 +5868,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -5854,8 +5888,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -5874,7 +5908,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -5894,7 +5928,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -5914,7 +5948,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -5934,7 +5968,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -5954,7 +5988,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -5974,7 +6008,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -6981,6 +7015,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -6992,7 +7029,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J5"/>
+      <selection activeCell="B6" sqref="B6:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7014,12 +7051,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -7031,27 +7068,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -7072,8 +7109,8 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -7092,8 +7129,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -7112,8 +7149,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -7132,8 +7169,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -7152,8 +7189,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -7172,7 +7209,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -7192,7 +7229,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -7212,7 +7249,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -7232,7 +7269,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -7252,7 +7289,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -7272,7 +7309,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -8279,6 +8316,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -8290,7 +8330,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8312,12 +8352,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -8329,27 +8369,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -8369,8 +8409,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -8389,8 +8429,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -8409,8 +8449,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -8429,8 +8469,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -8449,8 +8489,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -8469,7 +8509,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -8489,7 +8529,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -8509,7 +8549,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -8529,7 +8569,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -8549,7 +8589,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -8569,7 +8609,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -9576,6 +9616,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -9587,7 +9630,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9609,12 +9652,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -9626,27 +9669,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -9666,8 +9709,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -9686,8 +9729,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -9706,8 +9749,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -9726,8 +9769,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -9746,8 +9789,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -9766,7 +9809,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -9786,7 +9829,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -9806,7 +9849,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -9826,7 +9869,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -9846,7 +9889,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -9866,7 +9909,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -10873,6 +10916,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -10884,7 +10930,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:L3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10906,12 +10952,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -10923,27 +10969,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -10963,8 +11009,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -10983,8 +11029,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -11003,8 +11049,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -11023,8 +11069,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -11043,8 +11089,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -11063,7 +11109,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -11083,7 +11129,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -11103,7 +11149,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -11123,7 +11169,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -11143,7 +11189,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -11163,7 +11209,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -12170,6 +12216,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -12181,7 +12230,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J5"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12203,12 +12252,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -12220,27 +12269,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -12260,8 +12309,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -12280,8 +12329,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -12300,8 +12349,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -12320,8 +12369,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -12340,8 +12389,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -12360,7 +12409,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -12380,7 +12429,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -12400,7 +12449,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -12420,7 +12469,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -12440,7 +12489,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -12460,7 +12509,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -13467,6 +13516,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -13478,7 +13530,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13500,12 +13552,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -13517,27 +13569,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -13557,8 +13609,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -13577,8 +13629,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -13597,8 +13649,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -13617,8 +13669,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -13637,8 +13689,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -13657,7 +13709,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -13677,7 +13729,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -13697,7 +13749,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -13717,7 +13769,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -13737,7 +13789,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -13757,7 +13809,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -14764,6 +14816,9 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -14775,7 +14830,7 @@
   <dimension ref="B1:L1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14797,12 +14852,12 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
@@ -14814,27 +14869,27 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
@@ -14854,8 +14909,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="5">
-        <v>44653</v>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -14874,8 +14929,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="5">
-        <v>44716</v>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -14894,8 +14949,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="5">
-        <v>44779</v>
+      <c r="B9" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -14914,8 +14969,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="5">
-        <v>44842</v>
+      <c r="B10" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -14934,8 +14989,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="5">
-        <v>44905</v>
+      <c r="B11" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -14954,7 +15009,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
@@ -14974,7 +15029,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
@@ -14994,7 +15049,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -15014,7 +15069,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="1">
@@ -15034,7 +15089,7 @@
       </c>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="1">
@@ -15054,7 +15109,7 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1">
@@ -16061,5 +16116,8 @@
     <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>